--- a/test_scripts/edge/QS002_testscript.xlsx
+++ b/test_scripts/edge/QS002_testscript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00DB77E-378A-4D74-8933-775F20069981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C2A76-991E-451C-AB8E-EC0F5BEE1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>open_browser</t>
-  </si>
-  <si>
-    <t>enter_url</t>
   </si>
   <si>
     <t>tc_id</t>
@@ -501,7 +498,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,43 +511,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -559,45 +556,42 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -605,18 +599,18 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -624,46 +618,46 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">

--- a/test_scripts/edge/QS002_testscript.xlsx
+++ b/test_scripts/edge/QS002_testscript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C2A76-991E-451C-AB8E-EC0F5BEE1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00DB77E-378A-4D74-8933-775F20069981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>open_browser</t>
+  </si>
+  <si>
+    <t>enter_url</t>
   </si>
   <si>
     <t>tc_id</t>
@@ -498,7 +501,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,43 +514,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -556,42 +559,45 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -599,18 +605,18 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -618,46 +624,46 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
